--- a/data/pca/factorExposure/factorExposure_2013-05-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-15.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001469856840975088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001998918589573392</v>
+      </c>
+      <c r="C2">
+        <v>-0.03216523643025777</v>
+      </c>
+      <c r="D2">
+        <v>0.007727510934890693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.002262089320617953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006016158365528253</v>
+      </c>
+      <c r="C4">
+        <v>-0.08436962454417034</v>
+      </c>
+      <c r="D4">
+        <v>0.07827894193097309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.000834234170304329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01342301314731348</v>
+      </c>
+      <c r="C6">
+        <v>-0.1078228002277816</v>
+      </c>
+      <c r="D6">
+        <v>0.03400408923150789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002645583734399173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004786549320046081</v>
+      </c>
+      <c r="C7">
+        <v>-0.05275652571650438</v>
+      </c>
+      <c r="D7">
+        <v>0.03982143408086621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001093571330768144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005621449187899047</v>
+      </c>
+      <c r="C8">
+        <v>-0.03661734852419888</v>
+      </c>
+      <c r="D8">
+        <v>0.03944407485389084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005852153615050981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003993878796806181</v>
+      </c>
+      <c r="C9">
+        <v>-0.06919013066174569</v>
+      </c>
+      <c r="D9">
+        <v>0.0705178407133045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002966512359164078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005717467028505753</v>
+      </c>
+      <c r="C10">
+        <v>-0.07484868495064827</v>
+      </c>
+      <c r="D10">
+        <v>-0.2099686871492461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004193348776395354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005149810780291317</v>
+      </c>
+      <c r="C11">
+        <v>-0.07774404387609696</v>
+      </c>
+      <c r="D11">
+        <v>0.06503584091371474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0005236875859074453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003827667948912015</v>
+      </c>
+      <c r="C12">
+        <v>-0.06337658499555106</v>
+      </c>
+      <c r="D12">
+        <v>0.04757205063360646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003219941322426955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00859407776152195</v>
+      </c>
+      <c r="C13">
+        <v>-0.06866269638271236</v>
+      </c>
+      <c r="D13">
+        <v>0.0666731981041519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002429276182739582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001516613198848373</v>
+      </c>
+      <c r="C14">
+        <v>-0.04653674222007961</v>
+      </c>
+      <c r="D14">
+        <v>0.01394463109950344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002898062576173976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005870183226848092</v>
+      </c>
+      <c r="C15">
+        <v>-0.0388667812799352</v>
+      </c>
+      <c r="D15">
+        <v>0.03721499824876471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002214231229727732</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004833953079187292</v>
+      </c>
+      <c r="C16">
+        <v>-0.06410081295420185</v>
+      </c>
+      <c r="D16">
+        <v>0.04952019682018928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0001411698693553374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008961265033965823</v>
+      </c>
+      <c r="C20">
+        <v>-0.06458646266542793</v>
+      </c>
+      <c r="D20">
+        <v>0.05669677841485623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005743396254093506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009980527590336987</v>
+      </c>
+      <c r="C21">
+        <v>-0.02336651047165969</v>
+      </c>
+      <c r="D21">
+        <v>0.03388429442848738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01705021664990364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006902938675456423</v>
+      </c>
+      <c r="C22">
+        <v>-0.09237434517600566</v>
+      </c>
+      <c r="D22">
+        <v>0.1001002224014361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01739202440698948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006694419069119875</v>
+      </c>
+      <c r="C23">
+        <v>-0.09340670091392453</v>
+      </c>
+      <c r="D23">
+        <v>0.1006843354722655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003168608943345008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004759388692203651</v>
+      </c>
+      <c r="C24">
+        <v>-0.07256925410833377</v>
+      </c>
+      <c r="D24">
+        <v>0.06223945659118048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004873996337768085</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002742707405587207</v>
+      </c>
+      <c r="C25">
+        <v>-0.07693552469595896</v>
+      </c>
+      <c r="D25">
+        <v>0.06662607479128664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006453841592269267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003542232753022775</v>
+      </c>
+      <c r="C26">
+        <v>-0.04055131280147942</v>
+      </c>
+      <c r="D26">
+        <v>0.02606000358955372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006978158762742725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.000298498468490714</v>
+      </c>
+      <c r="C28">
+        <v>-0.126270677498484</v>
+      </c>
+      <c r="D28">
+        <v>-0.3088647038783695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0022346834652799</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003208756399295614</v>
+      </c>
+      <c r="C29">
+        <v>-0.04795942221741169</v>
+      </c>
+      <c r="D29">
+        <v>0.014891285859466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004595854485810579</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008655152852728802</v>
+      </c>
+      <c r="C30">
+        <v>-0.1366790205989413</v>
+      </c>
+      <c r="D30">
+        <v>0.110055469881797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0007375222296605672</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00606215331038509</v>
+      </c>
+      <c r="C31">
+        <v>-0.04517794915648675</v>
+      </c>
+      <c r="D31">
+        <v>0.03174844494673028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002040744919868629</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004059417882358387</v>
+      </c>
+      <c r="C32">
+        <v>-0.04126915804576845</v>
+      </c>
+      <c r="D32">
+        <v>0.01412411670766589</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.004217597642738295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007738414265017636</v>
+      </c>
+      <c r="C33">
+        <v>-0.08207627131019311</v>
+      </c>
+      <c r="D33">
+        <v>0.07423505719575514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005228828293006083</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003699771253464143</v>
+      </c>
+      <c r="C34">
+        <v>-0.05719032638926366</v>
+      </c>
+      <c r="D34">
+        <v>0.04755654055743196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003248531664846975</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004818866174804062</v>
+      </c>
+      <c r="C35">
+        <v>-0.03847398818503847</v>
+      </c>
+      <c r="D35">
+        <v>0.01295099389851337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004871543093975261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001339656269989246</v>
+      </c>
+      <c r="C36">
+        <v>-0.02352310686970401</v>
+      </c>
+      <c r="D36">
+        <v>0.02195127953672348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001678054368047747</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009334926283784743</v>
+      </c>
+      <c r="C38">
+        <v>-0.03232631212676729</v>
+      </c>
+      <c r="D38">
+        <v>0.02140522776162316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01363210269254306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009999993529597863</v>
+      </c>
+      <c r="C39">
+        <v>-0.1147593797029464</v>
+      </c>
+      <c r="D39">
+        <v>0.08530520479231751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008265715788240988</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002255324484578069</v>
+      </c>
+      <c r="C40">
+        <v>-0.08682047728274843</v>
+      </c>
+      <c r="D40">
+        <v>0.02242870899061391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0005430980325950251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007383335738831634</v>
+      </c>
+      <c r="C41">
+        <v>-0.03853243409779537</v>
+      </c>
+      <c r="D41">
+        <v>0.03563019923427711</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003664185799074623</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003462657777843505</v>
+      </c>
+      <c r="C43">
+        <v>-0.04995614999931749</v>
+      </c>
+      <c r="D43">
+        <v>0.02729240400942236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004487737199480946</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003700348692694388</v>
+      </c>
+      <c r="C44">
+        <v>-0.108174649779773</v>
+      </c>
+      <c r="D44">
+        <v>0.08445285066075223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002768825990534456</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002292021261717166</v>
+      </c>
+      <c r="C46">
+        <v>-0.03441320666424393</v>
+      </c>
+      <c r="D46">
+        <v>0.03280767735145729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0007558741324784217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002865919508161992</v>
+      </c>
+      <c r="C47">
+        <v>-0.03915526208040616</v>
+      </c>
+      <c r="D47">
+        <v>0.02275391985450818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003937810447729929</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006397409905040965</v>
+      </c>
+      <c r="C48">
+        <v>-0.02861182144668428</v>
+      </c>
+      <c r="D48">
+        <v>0.03087711962765503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.013488456637086</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01404492377617123</v>
+      </c>
+      <c r="C49">
+        <v>-0.1709761069580054</v>
+      </c>
+      <c r="D49">
+        <v>0.03482933788350512</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009209376390733481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003621799049718185</v>
+      </c>
+      <c r="C50">
+        <v>-0.04219356836050244</v>
+      </c>
+      <c r="D50">
+        <v>0.03601719759268725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001879872947436177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004282920730581054</v>
+      </c>
+      <c r="C51">
+        <v>-0.01986070153255071</v>
+      </c>
+      <c r="D51">
+        <v>0.03272155258125517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002025835450045747</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.020310583281337</v>
+      </c>
+      <c r="C53">
+        <v>-0.165259662222821</v>
+      </c>
+      <c r="D53">
+        <v>0.05026249866295381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0001960982426316293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008547302051203739</v>
+      </c>
+      <c r="C54">
+        <v>-0.05503701433705217</v>
+      </c>
+      <c r="D54">
+        <v>0.04200590681373314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004733607412231134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009310873847930874</v>
+      </c>
+      <c r="C55">
+        <v>-0.1051907088126559</v>
+      </c>
+      <c r="D55">
+        <v>0.05305486854322708</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002512166577199835</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01949569920581801</v>
+      </c>
+      <c r="C56">
+        <v>-0.1711841006438549</v>
+      </c>
+      <c r="D56">
+        <v>0.05015858396497104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00883441413774414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0194031742065827</v>
+      </c>
+      <c r="C58">
+        <v>-0.1028169475789883</v>
+      </c>
+      <c r="D58">
+        <v>0.07268471876679927</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.009152652348690261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009614924372692471</v>
+      </c>
+      <c r="C59">
+        <v>-0.1701767471550561</v>
+      </c>
+      <c r="D59">
+        <v>-0.2810648951999539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00635430466108161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02333176598774657</v>
+      </c>
+      <c r="C60">
+        <v>-0.2212600159404374</v>
+      </c>
+      <c r="D60">
+        <v>0.02938106425443779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.0147789427638339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002019938410805363</v>
+      </c>
+      <c r="C61">
+        <v>-0.09434521097214099</v>
+      </c>
+      <c r="D61">
+        <v>0.06355850016184526</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1786153495816427</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1437274108967135</v>
+      </c>
+      <c r="C62">
+        <v>-0.07786858017570181</v>
+      </c>
+      <c r="D62">
+        <v>0.05524840498864027</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001980447208352526</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006367843804602235</v>
+      </c>
+      <c r="C63">
+        <v>-0.05884360070686859</v>
+      </c>
+      <c r="D63">
+        <v>0.02654124168530863</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006141379722120249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01468128001668036</v>
+      </c>
+      <c r="C64">
+        <v>-0.1025381681878215</v>
+      </c>
+      <c r="D64">
+        <v>0.06525640110641463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0004540155528434284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01714165855110195</v>
+      </c>
+      <c r="C65">
+        <v>-0.1146882492696756</v>
+      </c>
+      <c r="D65">
+        <v>0.02842021763250062</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008975251043496137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01216131826256276</v>
+      </c>
+      <c r="C66">
+        <v>-0.1533300599577687</v>
+      </c>
+      <c r="D66">
+        <v>0.1236721131403569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002490640560586345</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01541694406745685</v>
+      </c>
+      <c r="C67">
+        <v>-0.06226012567740714</v>
+      </c>
+      <c r="D67">
+        <v>0.03313725450685642</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.008747681954162992</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001393317873156725</v>
+      </c>
+      <c r="C68">
+        <v>-0.1088782826641437</v>
+      </c>
+      <c r="D68">
+        <v>-0.2618840552029305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003027387522140168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005862044845788494</v>
+      </c>
+      <c r="C69">
+        <v>-0.04746169357491967</v>
+      </c>
+      <c r="D69">
+        <v>0.04279124702007706</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001742092337884541</v>
+      </c>
+      <c r="C70">
+        <v>-0.002109569582436723</v>
+      </c>
+      <c r="D70">
+        <v>0.002054198661209461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.004648418408726636</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006266031057798533</v>
+      </c>
+      <c r="C71">
+        <v>-0.1119086471426547</v>
+      </c>
+      <c r="D71">
+        <v>-0.2844624443891488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008681617455290634</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01557522707801351</v>
+      </c>
+      <c r="C72">
+        <v>-0.1483334537317373</v>
+      </c>
+      <c r="D72">
+        <v>0.02575503939125059</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01295964722988817</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02918527694870356</v>
+      </c>
+      <c r="C73">
+        <v>-0.2816721323077888</v>
+      </c>
+      <c r="D73">
+        <v>0.05069176635154954</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004859230732422855</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001436663360726416</v>
+      </c>
+      <c r="C74">
+        <v>-0.1047373410419524</v>
+      </c>
+      <c r="D74">
+        <v>0.04463102309015995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006884681389707969</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01061611491958957</v>
+      </c>
+      <c r="C75">
+        <v>-0.1306156443058463</v>
+      </c>
+      <c r="D75">
+        <v>0.03560894512244472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01155789909159336</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02126206261978175</v>
+      </c>
+      <c r="C76">
+        <v>-0.1461054803088001</v>
+      </c>
+      <c r="D76">
+        <v>0.07364030111634355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001602651481230691</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02429757482681119</v>
+      </c>
+      <c r="C77">
+        <v>-0.1336805122608358</v>
+      </c>
+      <c r="D77">
+        <v>0.06564957205942656</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007505480044135213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01414480833524988</v>
+      </c>
+      <c r="C78">
+        <v>-0.09184277922455472</v>
+      </c>
+      <c r="D78">
+        <v>0.06704258965647539</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0261562925621934</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0367598178700763</v>
+      </c>
+      <c r="C79">
+        <v>-0.1558928456895896</v>
+      </c>
+      <c r="D79">
+        <v>0.03485600780594773</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00514387533488395</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01049569935393611</v>
+      </c>
+      <c r="C80">
+        <v>-0.04112100444092449</v>
+      </c>
+      <c r="D80">
+        <v>0.03355117216059127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.002097806429724214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01446851403574401</v>
+      </c>
+      <c r="C81">
+        <v>-0.1210396856730955</v>
+      </c>
+      <c r="D81">
+        <v>0.05782292925943339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005459477317369601</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01947974774986738</v>
+      </c>
+      <c r="C82">
+        <v>-0.1416566172557463</v>
+      </c>
+      <c r="D82">
+        <v>0.04714070471686501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007181917801163114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009743929048024397</v>
+      </c>
+      <c r="C83">
+        <v>-0.05347519088021581</v>
+      </c>
+      <c r="D83">
+        <v>0.04698102926442679</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01326055121734926</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01174274638214484</v>
+      </c>
+      <c r="C84">
+        <v>-0.03170628567145324</v>
+      </c>
+      <c r="D84">
+        <v>-0.0001163850155090135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01392665794631313</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02789124398756949</v>
+      </c>
+      <c r="C85">
+        <v>-0.1278352712467105</v>
+      </c>
+      <c r="D85">
+        <v>0.0522232801102689</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003117955290696373</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005569643682388244</v>
+      </c>
+      <c r="C86">
+        <v>-0.04995173424291373</v>
+      </c>
+      <c r="D86">
+        <v>0.02208184294113996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008223500895841486</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01005570726196981</v>
+      </c>
+      <c r="C87">
+        <v>-0.1277703472903572</v>
+      </c>
+      <c r="D87">
+        <v>0.08151892761351241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.0152017383273902</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002840953505661983</v>
+      </c>
+      <c r="C88">
+        <v>-0.06881238731806988</v>
+      </c>
+      <c r="D88">
+        <v>0.01652562051632594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01737364456735684</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0008606025167353506</v>
+      </c>
+      <c r="C89">
+        <v>-0.1630130939740232</v>
+      </c>
+      <c r="D89">
+        <v>-0.3430049175098945</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005790481806226076</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007570611991332797</v>
+      </c>
+      <c r="C90">
+        <v>-0.1412339334809944</v>
+      </c>
+      <c r="D90">
+        <v>-0.3165834906274843</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001552477751300136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01020327752867985</v>
+      </c>
+      <c r="C91">
+        <v>-0.1046475618094745</v>
+      </c>
+      <c r="D91">
+        <v>0.02081312334154446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01447135597278807</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007183218564980083</v>
+      </c>
+      <c r="C92">
+        <v>-0.1519429408670107</v>
+      </c>
+      <c r="D92">
+        <v>-0.327314498452944</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003486827626379515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005556900218925205</v>
+      </c>
+      <c r="C93">
+        <v>-0.1258720992416396</v>
+      </c>
+      <c r="D93">
+        <v>-0.312973728528149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.0036324883906343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02220270366542071</v>
+      </c>
+      <c r="C94">
+        <v>-0.155542949729486</v>
+      </c>
+      <c r="D94">
+        <v>0.03585530531325427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004643889871454113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01597259374085822</v>
+      </c>
+      <c r="C95">
+        <v>-0.1236206118120962</v>
+      </c>
+      <c r="D95">
+        <v>0.06983990236019201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004349110868831243</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03468874421076651</v>
+      </c>
+      <c r="C97">
+        <v>-0.1787568030539365</v>
+      </c>
+      <c r="D97">
+        <v>0.04230260144775676</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.008682461179782094</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03558192954355171</v>
+      </c>
+      <c r="C98">
+        <v>-0.253564724188179</v>
+      </c>
+      <c r="D98">
+        <v>0.04634600632932717</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9814908113101194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827393874202401</v>
+      </c>
+      <c r="C99">
+        <v>0.1096085818659622</v>
+      </c>
+      <c r="D99">
+        <v>-0.03227971819721041</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.00219276631175292</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003250884564950028</v>
+      </c>
+      <c r="C101">
+        <v>-0.04798487917350569</v>
+      </c>
+      <c r="D101">
+        <v>0.01526724203600466</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
